--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation Iniciar Indice Comorbilidad LE, recurso que se utiliza para indicar el índice de comorbilidad de un paciente</t>
+    <t>Observation Iniciar Indice Comorbilidad LE, recurso que se utiliza para indicar el riesgo de un paciente según su índice de comorbilidad</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -845,9 +845,6 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>Indice Comorbilidad</t>
-  </si>
-  <si>
     <t>CodeableConcept.text</t>
   </si>
   <si>
@@ -864,7 +861,7 @@
 </t>
   </si>
   <si>
-    <t>Tipo de observación, aquí se define el riesgo asociado al Índice de comorbilidad</t>
+    <t>Tipo de observación en este caso, el riesgo asociado al índice de comorbilidad</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -876,7 +873,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIndicecomorbilidad</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/TipoDeObservacion</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -921,6 +921,9 @@
     <t>Observation.code.coding.code</t>
   </si>
   <si>
+    <t>ECICEP</t>
+  </si>
+  <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
@@ -928,6 +931,9 @@
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Indice Comorbilidad</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1106,11 +1112,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
+    <t>Riesgo asociado al Índice de comorbilidad</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1120,6 +1122,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIndicecomorbilidad</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1138,6 +1143,39 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.version</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.display</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.value[x].text</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1152,9 +1190,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1615,6 +1650,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1968,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP73"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3721,7 +3760,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>93</v>
@@ -5043,7 +5082,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>93</v>
@@ -5080,46 +5119,46 @@
         <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5140,10 +5179,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5154,14 +5193,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5183,16 +5222,16 @@
         <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5217,7 +5256,7 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
@@ -5239,7 +5278,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>93</v>
@@ -5523,7 +5562,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>93</v>
@@ -6160,7 +6199,7 @@
         <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>82</v>
@@ -6234,10 +6273,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6354,10 +6393,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6476,10 +6515,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6524,7 +6563,7 @@
         <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>82</v>
@@ -6563,7 +6602,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6584,10 +6623,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6598,10 +6637,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6624,19 +6663,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6685,7 +6724,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6700,19 +6739,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -6720,10 +6759,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6746,16 +6785,16 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6805,7 +6844,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6829,10 +6868,10 @@
         <v>280</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -6840,14 +6879,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6866,19 +6905,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6927,7 +6966,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6942,19 +6981,19 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -6962,14 +7001,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6988,19 +7027,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7049,7 +7088,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7064,19 +7103,19 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7084,10 +7123,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7110,16 +7149,16 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7169,7 +7208,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7190,13 +7229,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7204,10 +7243,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7230,17 +7269,17 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7289,7 +7328,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7304,19 +7343,19 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -7324,10 +7363,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7335,13 +7374,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -7350,19 +7389,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7387,13 +7426,11 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7411,7 +7448,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7420,7 +7457,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7429,27 +7466,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7472,20 +7509,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7509,13 +7542,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7533,7 +7566,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7542,10 +7575,10 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7554,10 +7587,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7568,14 +7601,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7594,20 +7627,18 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7631,31 +7662,31 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7667,33 +7698,33 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7701,34 +7732,34 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>214</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>215</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>388</v>
+        <v>216</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7777,7 +7808,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7798,10 +7829,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>390</v>
+        <v>219</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7812,10 +7843,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7838,17 +7869,15 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7873,13 +7902,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7897,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>203</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7909,44 +7938,44 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7958,20 +7987,18 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7995,43 +8022,43 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>210</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8040,10 +8067,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>410</v>
+        <v>204</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8054,10 +8081,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8071,27 +8098,29 @@
         <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>223</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>414</v>
+        <v>224</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8139,7 +8168,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>228</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8157,27 +8186,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>417</v>
+        <v>229</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8197,19 +8226,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>421</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>232</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>423</v>
+        <v>233</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>424</v>
+        <v>234</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8259,7 +8288,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>420</v>
+        <v>235</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8277,27 +8306,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>236</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>427</v>
+        <v>237</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8305,34 +8334,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>434</v>
+        <v>241</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8381,19 +8408,19 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>429</v>
+        <v>243</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8402,10 +8429,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8416,10 +8443,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8433,25 +8460,27 @@
         <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8499,7 +8528,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8511,7 +8540,7 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8520,10 +8549,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8534,21 +8563,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8557,21 +8586,23 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8619,19 +8650,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8640,10 +8671,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8654,45 +8685,45 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>264</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8741,19 +8772,19 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8762,10 +8793,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8776,10 +8807,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8802,16 +8833,20 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>446</v>
+        <v>191</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -8835,13 +8870,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -8859,7 +8894,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8868,7 +8903,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -8880,10 +8915,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>450</v>
+        <v>136</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8894,21 +8929,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -8920,16 +8955,20 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -8953,13 +8992,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8977,16 +9016,16 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -8995,27 +9034,27 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9026,7 +9065,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9038,19 +9077,19 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9075,13 +9114,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9099,13 +9138,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9117,13 +9156,13 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9134,10 +9173,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9148,7 +9187,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9163,17 +9202,15 @@
         <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9197,13 +9234,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9221,13 +9258,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9239,27 +9276,27 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9282,17 +9319,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>473</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9317,13 +9356,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9341,7 +9380,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9362,10 +9401,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9376,10 +9415,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9402,15 +9441,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>479</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9459,7 +9500,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9477,27 +9518,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9508,7 +9549,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9517,19 +9558,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9579,13 +9620,13 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -9597,27 +9638,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9637,21 +9678,23 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9699,7 +9742,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9711,7 +9754,7 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9720,10 +9763,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9734,10 +9777,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9748,7 +9791,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9757,23 +9800,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>496</v>
+        <v>201</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9821,19 +9860,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>495</v>
+        <v>203</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -9842,10 +9881,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>501</v>
+        <v>204</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -9856,21 +9895,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -9882,15 +9921,17 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -9939,19 +9980,19 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -9974,14 +10015,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>138</v>
+        <v>453</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9994,24 +10035,26 @@
         <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>140</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>206</v>
+        <v>455</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10059,7 +10102,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>210</v>
+        <v>456</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10083,7 +10126,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10094,46 +10137,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>139</v>
+        <v>458</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10181,19 +10220,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10202,10 +10241,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>136</v>
+        <v>463</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10216,10 +10255,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10227,7 +10266,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>93</v>
@@ -10239,23 +10278,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10279,13 +10314,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10303,16 +10338,16 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10321,16 +10356,16 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10338,10 +10373,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10361,22 +10396,22 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>353</v>
+        <v>470</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>355</v>
+        <v>472</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10401,13 +10436,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10425,7 +10460,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10443,27 +10478,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10474,7 +10509,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10489,16 +10524,16 @@
         <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>365</v>
+        <v>481</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10523,13 +10558,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>368</v>
+        <v>483</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10547,16 +10582,16 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10565,13 +10600,13 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>136</v>
+        <v>476</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10582,21 +10617,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10608,19 +10643,17 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>191</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>373</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10645,13 +10678,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10669,13 +10702,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -10687,27 +10720,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>381</v>
+        <v>489</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10718,7 +10751,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10730,20 +10763,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -10791,13 +10820,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -10812,20 +10841,1352 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP73">
+  <autoFilter ref="A1:AP84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10835,7 +12196,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -310,10 +310,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2320,13 +2320,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>82</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -491,7 +491,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation</t>
+    <t>Identificación para la observación</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.</t>
@@ -573,10 +573,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>registered|preliminary|final|amended|corrected|cancelled|entered-in-error|unknown</t>
+  </si>
+  <si>
+    <t>Estado de la observación</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -1032,7 +1032,7 @@
 PeriodTiminginstant</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
+    <t>Tiempo/Tiempo-periodo de relevancia clínica para la observación</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1084,11 +1084,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|CareTeam|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t>Quien es responsable por la observación</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1212,10 +1212,10 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+    <t>Alta, baja, normal, etc</t>
+  </si>
+  <si>
+    <t>Interpretación del valor de la observación</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
@@ -1224,7 +1224,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
+    <t>Códigos de identificción para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1249,7 +1249,7 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation</t>
+    <t>Comentarios sobre la observación</t>
   </si>
   <si>
     <t>Comments about the observation or the results.</t>
@@ -1335,7 +1335,7 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
+    <t>Muestra tomada para la observación</t>
   </si>
   <si>
     <t>The specimen that was used when this observation was made.</t>
@@ -1559,17 +1559,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
+    <t>Grupo de recursos relacionados a la observación</t>
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1600,7 +1600,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
+    <t>Componentes de los resultados</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1630,7 +1630,7 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>Type of component observation (code / type)</t>
+    <t>Tipo de componente de la observación (code/type)</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
@@ -1639,7 +1639,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>Códigos de identficación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1656,7 +1656,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
+    <t>Actual Resultado del componente</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1679,6 +1679,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Interpretación del valor del componente de la observación</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2026,7 +2029,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="164.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3286,7 +3289,7 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>82</v>
@@ -7018,7 +7021,7 @@
         <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
@@ -7260,7 +7263,7 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -8946,7 +8949,7 @@
         <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9068,7 +9071,7 @@
         <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9432,7 +9435,7 @@
         <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>82</v>
@@ -10872,7 +10875,7 @@
         <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
@@ -11112,7 +11115,7 @@
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
@@ -11594,7 +11597,7 @@
         <v>93</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>82</v>
@@ -11716,7 +11719,7 @@
         <v>93</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
@@ -11960,7 +11963,7 @@
         <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
@@ -11975,7 +11978,7 @@
         <v>385</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>387</v>
@@ -12065,10 +12068,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12094,10 +12097,10 @@
         <v>83</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>445</v>
@@ -12152,7 +12155,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1224,7 +1224,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Códigos de identificción para la interpretación de la observación</t>
+    <t>Códigos de identificación para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1639,7 +1639,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Códigos de identficación simple para el nombre de una observación</t>
+    <t>Códigos de identificación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -2043,7 +2043,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="70.5" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIndiceComorbilidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2019,15 +2019,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2038,28 +2038,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.5" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
